--- a/xlsx_files/Race30.xlsx
+++ b/xlsx_files/Race30.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6280151D-9A6A-425A-AB17-2C7264EFC0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E4909A-642D-493A-B6EC-54E546383092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7344" yWindow="4392" windowWidth="18516" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Track Name</t>
   </si>
@@ -51,246 +51,6 @@
     <t>GT3 Sprint Championship 2023</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pavlo Polovchuk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Viktor Abramov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Stas Kulakov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Kniazhytsyn</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksii Panchenko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evgen Artemenko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yevhen Sayko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Denys Stanovych</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yehor Zvuzdetskyi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yurii Kit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Stas Ivanyuk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ruslan Bezuhlov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksii Berkunskyi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Volodymyr Zaporozhets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Viktor Kalmus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Borodai</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Anton Orlenko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Constantine Levitskiy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vlad Tatara</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Olexandr Yakunin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Gnyirya</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Timur Ostapchuk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleh Pitcik</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Artem Sakun</t>
-    </r>
-  </si>
-  <si>
     <t>Dominik Khoroshavin</t>
   </si>
   <si>
@@ -319,6 +79,90 @@
   </si>
   <si>
     <t>Circuit Ricardo Tormo - Valencia (race 2)</t>
+  </si>
+  <si>
+    <t>Artem Khorolskyi</t>
+  </si>
+  <si>
+    <t>Andrii Vorona</t>
+  </si>
+  <si>
+    <t>Stanislav Pochtaruk</t>
+  </si>
+  <si>
+    <t>Oleksandr Vasyliuk</t>
+  </si>
+  <si>
+    <t>Pavlo Polovchuk</t>
+  </si>
+  <si>
+    <t>Oleksandr Kniazhytsyn</t>
+  </si>
+  <si>
+    <t>Viktor Abramov</t>
+  </si>
+  <si>
+    <t>Ruslan Bezuhlov</t>
+  </si>
+  <si>
+    <t>Stas Kulakov</t>
+  </si>
+  <si>
+    <t>Oleksandr Borodai</t>
+  </si>
+  <si>
+    <t>Oleksii Panchenko</t>
+  </si>
+  <si>
+    <t>Oleh Pitcik</t>
+  </si>
+  <si>
+    <t>Yehor Zvuzdetskyi</t>
+  </si>
+  <si>
+    <t>Denys Stanovych</t>
+  </si>
+  <si>
+    <t>Artem Sakun</t>
+  </si>
+  <si>
+    <t>Volodymyr Zaporozhets</t>
+  </si>
+  <si>
+    <t>Yevhen Sayko</t>
+  </si>
+  <si>
+    <t>Constantine Levitskiy</t>
+  </si>
+  <si>
+    <t>Vlad Tatara</t>
+  </si>
+  <si>
+    <t>Viktor Kalmus</t>
+  </si>
+  <si>
+    <t>Evgen Artemenko</t>
+  </si>
+  <si>
+    <t>Olexandr Yakunin</t>
+  </si>
+  <si>
+    <t>Stas Ivanyuk</t>
+  </si>
+  <si>
+    <t>Anton Orlenko</t>
+  </si>
+  <si>
+    <t>Oleksandr Gnyirya</t>
+  </si>
+  <si>
+    <t>Timur Ostapchuk</t>
+  </si>
+  <si>
+    <t>Yurii Kit</t>
+  </si>
+  <si>
+    <t>Oleksii Berkunskyi</t>
   </si>
 </sst>
 </file>
@@ -340,17 +184,23 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Noto Sans"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Noto Sans"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Noto Sans"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -385,6 +235,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -667,14 +518,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
@@ -706,19 +557,19 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -726,13 +577,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>45147</v>
@@ -744,16 +595,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -761,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -769,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -777,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -785,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -793,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -801,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -809,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -817,15 +668,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -849,15 +700,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -873,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -881,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -889,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -897,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -905,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -913,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -921,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -929,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -937,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -945,29 +796,48 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2"/>
